--- a/data/trans_dic/P04D$colectiva-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,21</t>
+          <t>1,59; 4,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,44</t>
+          <t>0,58; 2,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,2</t>
+          <t>3,97; 7,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,64</t>
+          <t>1,17; 3,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,49</t>
+          <t>1,33; 3,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,3</t>
+          <t>4,12; 7,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,4</t>
+          <t>1,63; 3,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,5</t>
+          <t>1,12; 2,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,65</t>
+          <t>4,41; 6,61</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,1</t>
+          <t>2,45; 4,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,42</t>
+          <t>0,81; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,7</t>
+          <t>2,4; 6,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,74</t>
+          <t>2,43; 4,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,67</t>
+          <t>0,46; 1,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,4</t>
+          <t>5,53; 8,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,44</t>
+          <t>2,7; 4,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,76</t>
+          <t>0,75; 1,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,92</t>
+          <t>3,87; 6,97</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,63</t>
+          <t>0,27; 1,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,24</t>
+          <t>0,98; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,72</t>
+          <t>3,14; 7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,4</t>
+          <t>0,26; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,4</t>
+          <t>1,19; 3,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,65</t>
+          <t>1,1; 3,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,23</t>
+          <t>0,39; 1,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,79</t>
+          <t>1,32; 2,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,53</t>
+          <t>2,13; 4,51</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,49</t>
+          <t>3,76; 6,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,7</t>
+          <t>4,67; 7,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,27</t>
+          <t>6,75; 11,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,13</t>
+          <t>2,77; 5,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,17</t>
+          <t>3,31; 6,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,49</t>
+          <t>6,02; 9,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,26</t>
+          <t>3,47; 5,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,32</t>
+          <t>4,22; 6,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,54</t>
+          <t>6,92; 9,66</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,79</t>
+          <t>2,55; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,42</t>
+          <t>2,27; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,83</t>
+          <t>4,55; 6,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,29</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,06</t>
+          <t>2,0; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,62</t>
+          <t>4,77; 6,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,41</t>
+          <t>2,5; 3,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,07</t>
+          <t>2,27; 3,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,52</t>
+          <t>5,02; 6,51</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción colectiva en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18121</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8837</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33933</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14763</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14768</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40469</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32884</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23605</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>74401</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11173; 30107</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3909; 15777</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25168; 46439</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8137; 24777</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8939; 24300</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29859; 51746</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22790; 46543</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15145; 35045</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59881; 89802</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35805</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14734</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56992</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35771</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9600</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65697</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71576</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24334</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>122689</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24866; 48918</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8314; 24658</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28650; 80263</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25049; 48712</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4818; 17102</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52876; 80952</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55255; 90570</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15490; 35466</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>83233; 149692</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14363</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32372</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4981</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16141</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22998</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30504</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55370</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2042; 12647</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7420; 24636</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22126; 49512</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1980; 11258</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9365; 25985</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10249; 34079</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5906; 19021</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20376; 43454</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34908; 73714</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47543</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57072</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80245</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40061</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>47444</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85782</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87604</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>104516</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35608; 61569</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43801; 74059</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62446; 102534</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>29165; 54498</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34544; 64108</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65783; 102074</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>69340; 108033</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>83613; 127952</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>139494; 194894</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>107529</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>95006</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>203541</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95576</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>87953</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>214947</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>203105</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>182959</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>418488</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>87160; 129163</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>76959; 115788</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>157265; 238211</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>76214; 118292</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>70912; 107083</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>176683; 247518</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>174013; 232053</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>157173; 211025</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>359613; 465817</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>